--- a/inst/labs_refer_s02.xlsx
+++ b/inst/labs_refer_s02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AEF6B5-B662-4355-A932-A73A84C35245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145B5B8-4555-4CBC-BCE7-9149EFA755CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
-    <t>age_min</t>
-  </si>
-  <si>
-    <t>age_max</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>human_name</t>
-  </si>
-  <si>
-    <t>name_lab_vals</t>
-  </si>
-  <si>
-    <t>name_is_norm</t>
-  </si>
-  <si>
-    <t>lab_vals_min</t>
-  </si>
-  <si>
-    <t>lab_vals_max</t>
-  </si>
-  <si>
     <t>f|m</t>
   </si>
   <si>
@@ -76,6 +52,30 @@
   </si>
   <si>
     <t>4.2</t>
+  </si>
+  <si>
+    <t>AGELOW</t>
+  </si>
+  <si>
+    <t>AGEHIGH</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>LBTEST</t>
+  </si>
+  <si>
+    <t>LBORRES</t>
+  </si>
+  <si>
+    <t>LBNDIND</t>
+  </si>
+  <si>
+    <t>LBORNRLO</t>
+  </si>
+  <si>
+    <t>LBORNRHI</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -119,6 +119,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -402,35 +403,35 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -441,22 +442,22 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -467,16 +468,16 @@
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -493,16 +494,16 @@
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>

--- a/inst/labs_refer_s02.xlsx
+++ b/inst/labs_refer_s02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145B5B8-4555-4CBC-BCE7-9149EFA755CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCE29E-4F40-4E8D-BCAC-BA792D2D20ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,26 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>f|m</t>
   </si>
   <si>
-    <t>gluc</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>ast</t>
-  </si>
-  <si>
-    <t>ast_res</t>
-  </si>
-  <si>
-    <t>gluc_res</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -76,6 +64,24 @@
   </si>
   <si>
     <t>LBORNRHI</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>GLUC</t>
+  </si>
+  <si>
+    <t>GLUC_IND</t>
+  </si>
+  <si>
+    <t>Aspartate transaminase</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>AST_IND</t>
   </si>
 </sst>
 </file>
@@ -403,35 +409,38 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -445,19 +454,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -468,16 +477,16 @@
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -494,16 +503,16 @@
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>

--- a/inst/labs_refer_s02.xlsx
+++ b/inst/labs_refer_s02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCE29E-4F40-4E8D-BCAC-BA792D2D20ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C28AA2-1184-453F-B908-6FAD61E4D1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>LBORRES</t>
   </si>
   <si>
-    <t>LBNDIND</t>
-  </si>
-  <si>
     <t>LBORNRLO</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>AST_IND</t>
+  </si>
+  <si>
+    <t>LBNRIND</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,13 +434,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -480,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
